--- a/data/trans_bre/P15_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P15_3-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -641,22 +641,22 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -666,22 +666,22 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,84%</t>
+          <t>-5,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-15,11%</t>
+          <t>-15,47%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>11,11%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 3,04</t>
+          <t>-2,5; 3,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 2,79</t>
+          <t>-4,08; 2,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 1,13</t>
+          <t>-7,87; 0,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 10,17</t>
+          <t>-0,54; 9,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 9,88</t>
+          <t>-0,58; 9,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,17; 50,57</t>
+          <t>-27,0; 46,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-37,89; 50,24</t>
+          <t>-41,4; 45,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-30,09; 5,98</t>
+          <t>-32,6; 3,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 42,8</t>
+          <t>-2,12; 37,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 25,69</t>
+          <t>-1,43; 24,58</t>
         </is>
       </c>
     </row>
@@ -761,47 +761,47 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,29%</t>
+          <t>44,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>58,06%</t>
+          <t>44,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,38</t>
+          <t>-0,46; 4,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,89</t>
+          <t>-0,85; 4,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 9,43</t>
+          <t>0,9; 9,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 8,79</t>
+          <t>-3,12; 7,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 11,27</t>
+          <t>-8,7; 10,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 123,59</t>
+          <t>-8,75; 138,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 193,5</t>
+          <t>-21,22; 162,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 84,26</t>
+          <t>4,19; 81,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 38,12</t>
+          <t>-10,44; 32,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 33,12</t>
+          <t>-19,92; 30,88</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -901,22 +901,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>126,86%</t>
+          <t>134,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -934,22 +934,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 5,12</t>
+          <t>-5,59; 5,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,65</t>
+          <t>-1,35; 6,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 13,46</t>
+          <t>-5,06; 13,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 13,85</t>
+          <t>-5,97; 15,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -959,22 +959,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-63,14; 153,98</t>
+          <t>-62,45; 189,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-67,27; —</t>
+          <t>-77,11; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 106,71</t>
+          <t>-21,72; 98,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 69,31</t>
+          <t>-19,11; 72,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1001,17 +1001,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1026,17 +1026,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1054,52 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,72</t>
+          <t>-0,84; 2,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,76</t>
+          <t>-1,24; 2,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 3,81</t>
+          <t>-1,67; 3,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 7,54</t>
+          <t>0,08; 6,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 8,1</t>
+          <t>-1,03; 8,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 49,29</t>
+          <t>-12,14; 51,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 64,84</t>
+          <t>-19,1; 64,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 23,19</t>
+          <t>-8,59; 23,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 30,59</t>
+          <t>0,66; 27,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 21,58</t>
+          <t>-2,57; 22,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P15_3-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,37</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,54</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,58</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,69%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-5,87%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-15,47%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>16,83%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>11,11%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.210832508656289</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.2482991137942606</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-3.117860242008813</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.701621903007974</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>4.581862071929771</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.02694467138143465</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.03287262032040962</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1455206582010007</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1761067172650915</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.1110539127364099</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,5; 3,1</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,08; 2,66</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,87; 0,69</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 9,23</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,58; 9,6</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-27,0; 46,88</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-41,4; 45,08</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-32,6; 3,69</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-2,12; 37,81</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 24,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.497833388710509</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.052042102671134</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.796997992960213</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.3789353976798805</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.5833435655059558</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.269967297240444</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4035961827212391</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3212100855498695</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.01317954873047774</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.01433626673703621</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.100578877925927</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.891210593381241</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.9618385360323701</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.438151662708263</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>9.604754122654914</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.4687541089919014</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.5019436978037688</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.04950713602574419</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.3948125604712622</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.2457507729098785</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,13</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>44,27%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>44,63%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>37,25%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>9,01%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>1,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 4,42</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 4,19</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 9,46</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,12; 7,7</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-8,7; 10,73</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-8,75; 138,58</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-21,22; 162,82</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>4,19; 81,74</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-10,44; 32,39</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-19,92; 30,88</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.995739512512869</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.008891229996827</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.010680803192652</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.657394114477563</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.7526054649149905</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.4426895880870824</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.5711249452073824</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3645813299338795</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1002149718055631</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.0189014067496828</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,34</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,2</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,37%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>134,12%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>23,18%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>15,99%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.4600177310293126</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.4984407732309705</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.7730147271009499</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.840478615365252</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-8.698785052009459</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.08750168975496812</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1267155850420901</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.03748636522577797</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.09634991918221543</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1991649002597955</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,59; 5,45</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 6,62</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,06; 13,01</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,97; 15,15</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-62,45; 189,02</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-77,11; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-21,72; 98,85</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-19,11; 72,73</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.421663592222533</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.742627114313978</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.007078580736568</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.022906276251128</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>10.72756592492433</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.385808804228266</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.946491410513562</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.7943862370549576</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.3409552408571807</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.3088230911747904</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,219 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,7</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,79</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>15,04%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>14,54%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,07%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>13,78%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>9,26%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.02187740702130139</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.226620042492288</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.170451793725674</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.769312972417133</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>0.003695424378378242</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.495868231700116</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2243381509452701</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1430256164179496</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,84; 2,72</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,24; 2,69</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 3,86</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 6,89</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 8,54</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-12,14; 51,13</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-19,1; 64,46</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-8,59; 23,35</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 27,98</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 22,47</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.594322123112949</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.000278231766488</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.482079449518581</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.72417792451833</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.6245158915943813</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7306544599310473</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2190040405968226</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2148730345212532</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.4489557325069</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.136630572320729</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.60994926024062</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>14.35335461851383</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>1.890176176548378</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>0.9595077090629943</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.6732021052231093</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.9410943422602847</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.008731321269775</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.9765735448048624</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.819321611024817</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>3.788370461583596</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1503814527654443</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1939281949817685</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.05423623439947733</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1436746290790356</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.09259601381367437</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.8442707745698701</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.101938000020176</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.713501217251046</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3271630496051387</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-1.027660836970584</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1213649748163573</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1778559201024473</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.08844121743993716</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.01445354187224967</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.02565969640016645</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.723850325798341</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.000648444336952</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.786998484118536</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.123339599533732</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>8.541235066526182</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.5112761827839257</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.7162430383057793</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2352440249196877</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2920454914384898</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.2247157780483301</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1112,13 +1099,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
